--- a/etc/templates.xlsx
+++ b/etc/templates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Garrapata State Park</t>
   </si>
   <si>
-    <t>One of the few easy-to-reach beaches is at Garrapata State Park about 2 miles (3.2 kilometers) south of Carmel Highlands. From Soberanes Point watch for sea otters, which are protected under California state law.</t>
-  </si>
-  <si>
     <t>Bixby Bridge</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Nepenthe</t>
   </si>
   <si>
-    <t>An indoor-outdoor restaurant perched 800 feet above the sea and famous for its views.</t>
-  </si>
-  <si>
     <t>startLatitude</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Hearst Castle</t>
   </si>
   <si>
-    <t>Get a private tour of Hearst Castle right from your phone using the GPS-enabled interactive map in the Hearst Castle mobile app. Listen to in-depth narration from Castle historians, view never before seen photos, and play popular music from the time all on your iPhone or Android.</t>
-  </si>
-  <si>
     <t>Estero Bay</t>
   </si>
   <si>
@@ -125,13 +116,52 @@
     <t>Encourages and advances understanding of our natural environment through discovery and learning. The museum is set on 80-acres, abutted by 300 acres of town-owned conservation land.</t>
   </si>
   <si>
-    <t>Flagler Beach</t>
-  </si>
-  <si>
     <t>Located along Florida’s Atlantic Coast between Daytona Beach and St. Augustine, cozy Flagler Beach offers miles of sparkling beaches, bountiful fishing, beachside shops, waterfront restaurants, and natural parks and other wonders.</t>
   </si>
   <si>
     <t>Atlantic Coast, Florida</t>
+  </si>
+  <si>
+    <t>11,12,13,14,15</t>
+  </si>
+  <si>
+    <t>Fort Matanzas National Monument</t>
+  </si>
+  <si>
+    <t>Merritt Island National Wildlife Refuge</t>
+  </si>
+  <si>
+    <t>The Refuge, managed by the U. S. Fish and Wildlife Service, provides a buffer zone for the National Aeronautics and Space Administration (NASA) in their quest for space exploration.</t>
+  </si>
+  <si>
+    <t>Sebastian Inlet State Park</t>
+  </si>
+  <si>
+    <t>The premier saltwater fishing spot on Florida's east coast, this park is a favorite for anglers nationwide for catching snook, redfish, bluefish, and Spanish mackerel from its jetties. Surfing is also a popular recreation and several major competitions are held here every year.</t>
+  </si>
+  <si>
+    <t>Jupiter Island</t>
+  </si>
+  <si>
+    <t>The story of Jupiter Island is one about land, a story that began with a land grant in 1815. In 1968, over 150 years later, the granting of land came full circle. A portion of land at the southern end of the Island was given to The Nature Conservancy as a wildlife preserve. </t>
+  </si>
+  <si>
+    <t>Adrienne Arsht Center for the Performing Arts</t>
+  </si>
+  <si>
+    <t>Florida's largest performing arts center and is located on Biscayne Boulevard in the Omni neighborhood of Downtown, Miami, Florida, United States. It is the second largest performing arts center in the United States.</t>
+  </si>
+  <si>
+    <t>Following this our Atlantic Coast route will open your eyes to a whole other world. Alternating between wildly differing beach resort areas and lengthy stretches of pristine coastal wilderness, this drive is sure to capture your imagination</t>
+  </si>
+  <si>
+    <t>One of the few easy-to-reach beaches is at Garrapata State Park about 2 miles south of Carmel Highlands. From Soberanes Point watch for sea otters, which are protected under California state law.</t>
+  </si>
+  <si>
+    <t>An indoor-outdoor restaurant perched 800 feet above the sea and famous for its views. Enjoy the fresh fish caught right off the coast!</t>
+  </si>
+  <si>
+    <t>Get a private tour of Hearst Castle right from your phone using the interactive map in the Hearst Castle mobile app. Listen to in-depth narration from Castle historians, view never before seen photos, and play popular music from the time.</t>
   </si>
 </sst>
 </file>
@@ -470,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +515,7 @@
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -498,85 +529,97 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>36.594378900000002</v>
+      </c>
+      <c r="E2">
+        <v>-121.8674989</v>
+      </c>
+      <c r="F2">
+        <v>35.4446461</v>
+      </c>
+      <c r="G2">
+        <v>-120.89230209999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>36.594378900000002</v>
+        <v>42.251577400000002</v>
       </c>
       <c r="E3">
-        <v>-121.8674989</v>
+        <v>-71.004261400000004</v>
       </c>
       <c r="F3">
-        <v>35.4446461</v>
+        <v>42.045297699999999</v>
       </c>
       <c r="G3">
-        <v>-120.89230209999999</v>
+        <v>-70.214537699999994</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>42.251577400000002</v>
+        <v>29.9064859</v>
       </c>
       <c r="E4">
-        <v>-71.004261400000004</v>
+        <v>-81.305296900000002</v>
       </c>
       <c r="F4">
-        <v>42.045297699999999</v>
+        <v>25.789654500000001</v>
       </c>
       <c r="G4">
-        <v>-70.214537699999994</v>
+        <v>-80.204417699999993</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>29.9064859</v>
-      </c>
-      <c r="E5">
-        <v>-81.305296900000002</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -586,15 +629,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -617,221 +660,259 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>36.463655600000003</v>
+      </c>
+      <c r="E2">
+        <v>-121.88753939999999</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>36.463655600000003</v>
+        <v>36.371812800000001</v>
       </c>
       <c r="E3">
-        <v>-121.88753939999999</v>
+        <v>-121.90219449999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>36.371812800000001</v>
+        <v>36.222458899999999</v>
       </c>
       <c r="E4">
-        <v>-121.90219449999999</v>
+        <v>-121.7592241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>36.222458899999999</v>
+        <v>35.675311299999997</v>
       </c>
       <c r="E5">
-        <v>-121.7592241</v>
+        <v>-121.1504611</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6">
-        <v>35.675311299999997</v>
+        <v>35.449958299999999</v>
       </c>
       <c r="E6">
-        <v>-121.1504611</v>
+        <v>-120.9511054</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>35.449958299999999</v>
+        <v>42.038451600000002</v>
       </c>
       <c r="E7">
-        <v>-120.9511054</v>
+        <v>-70.064654899999994</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8">
-        <v>42.038451600000002</v>
+        <v>41.928348800000002</v>
       </c>
       <c r="E8">
-        <v>-70.064654899999994</v>
+        <v>-70.016722000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
       <c r="D9">
-        <v>41.928348800000002</v>
+        <v>41.740385500000002</v>
       </c>
       <c r="E9">
-        <v>-70.016722000000001</v>
+        <v>-70.194962799999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10">
-        <v>41.740385500000002</v>
+        <v>41.758775300000003</v>
       </c>
       <c r="E10">
-        <v>-70.194962799999999</v>
+        <v>-70.500436500000006</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
       <c r="D11">
-        <v>41.758775300000003</v>
+        <v>41.753745199999997</v>
       </c>
       <c r="E11">
-        <v>-70.500436500000006</v>
+        <v>-70.116000600000007</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>41.753745199999997</v>
+        <v>29.711415500000001</v>
       </c>
       <c r="E12">
-        <v>-70.116000600000007</v>
+        <v>-81.233048699999998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>29.479318200000002</v>
+        <v>28.809668500000001</v>
       </c>
       <c r="E13">
-        <v>-81.128654299999994</v>
+        <v>-80.855845599999995</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>27.8522675</v>
+      </c>
+      <c r="E14">
+        <v>-80.447956099999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>27.031887000000001</v>
+      </c>
+      <c r="E15">
+        <v>-80.101153699999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>25.787236</v>
+      </c>
+      <c r="E16">
+        <v>-80.189988799999995</v>
       </c>
     </row>
   </sheetData>

--- a/etc/templates.xlsx
+++ b/etc/templates.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Points of interest" sheetId="2" r:id="rId2"/>
+    <sheet name="Fake Points - Florida" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -162,6 +163,30 @@
   </si>
   <si>
     <t>Get a private tour of Hearst Castle right from your phone using the interactive map in the Hearst Castle mobile app. Listen to in-depth narration from Castle historians, view never before seen photos, and play popular music from the time.</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>Lead User Latitude</t>
+  </si>
+  <si>
+    <t>User 2 Latitude</t>
+  </si>
+  <si>
+    <t>User 3 Latitude</t>
+  </si>
+  <si>
+    <t>User 2 Longitude</t>
+  </si>
+  <si>
+    <t>User 3 Longitude</t>
+  </si>
+  <si>
+    <t>*** User Three Encount Problem</t>
+  </si>
+  <si>
+    <t>*** Group decides to go to Juptier Island</t>
   </si>
 </sst>
 </file>
@@ -502,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +657,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,4 +944,403 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>29.9107507079447</v>
+      </c>
+      <c r="C2">
+        <v>-81.313592409669596</v>
+      </c>
+      <c r="D2">
+        <v>29.911420290532501</v>
+      </c>
+      <c r="E2">
+        <v>-81.312390780030796</v>
+      </c>
+      <c r="F2">
+        <v>29.9120898686188</v>
+      </c>
+      <c r="G2">
+        <v>-81.311704134522699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>29.835431168878301</v>
+      </c>
+      <c r="C3">
+        <v>-81.320716356812696</v>
+      </c>
+      <c r="D3">
+        <v>29.842578546534899</v>
+      </c>
+      <c r="E3">
+        <v>-81.322089647828804</v>
+      </c>
+      <c r="F3">
+        <v>29.847343180827899</v>
+      </c>
+      <c r="G3">
+        <v>-81.323462938844003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>29.549714853149499</v>
+      </c>
+      <c r="C4">
+        <v>-81.285010790406304</v>
+      </c>
+      <c r="D4">
+        <v>29.577188399379398</v>
+      </c>
+      <c r="E4">
+        <v>-81.286384081421403</v>
+      </c>
+      <c r="F4">
+        <v>29.610624366493902</v>
+      </c>
+      <c r="G4">
+        <v>-81.291877245484002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>29.345221060567901</v>
+      </c>
+      <c r="C5">
+        <v>-81.149054979859002</v>
+      </c>
+      <c r="D5">
+        <v>29.355994157883099</v>
+      </c>
+      <c r="E5">
+        <v>-81.162787890015295</v>
+      </c>
+      <c r="F5">
+        <v>29.365569288019799</v>
+      </c>
+      <c r="G5">
+        <v>-81.172400927125196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>29.152317645156401</v>
+      </c>
+      <c r="C6">
+        <v>-81.0666575189219</v>
+      </c>
+      <c r="D6">
+        <v>29.195484563183001</v>
+      </c>
+      <c r="E6">
+        <v>-81.088630175171104</v>
+      </c>
+      <c r="F6">
+        <v>29.219458336307099</v>
+      </c>
+      <c r="G6">
+        <v>-81.105109667358704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28.830394634201799</v>
+      </c>
+      <c r="C7">
+        <v>-80.907355761109301</v>
+      </c>
+      <c r="D7">
+        <v>28.859264379655301</v>
+      </c>
+      <c r="E7">
+        <v>-80.9183420892344</v>
+      </c>
+      <c r="F7">
+        <v>29.113931815349002</v>
+      </c>
+      <c r="G7">
+        <v>-81.039191698609201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>28.830394634201799</v>
+      </c>
+      <c r="C8">
+        <v>-80.907355761109301</v>
+      </c>
+      <c r="D8">
+        <v>28.859264379655301</v>
+      </c>
+      <c r="E8">
+        <v>-80.9183420892344</v>
+      </c>
+      <c r="F8">
+        <v>28.883316378915101</v>
+      </c>
+      <c r="G8">
+        <v>-80.9293284173595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>28.459190425189401</v>
+      </c>
+      <c r="C9">
+        <v>-80.830451464232993</v>
+      </c>
+      <c r="D9">
+        <v>28.386725332899601</v>
+      </c>
+      <c r="E9">
+        <v>-80.802985643921204</v>
+      </c>
+      <c r="F9">
+        <v>28.4495312793991</v>
+      </c>
+      <c r="G9">
+        <v>-80.813971972046303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28.106061397387599</v>
+      </c>
+      <c r="C10">
+        <v>-80.709601854858093</v>
+      </c>
+      <c r="D10">
+        <v>28.183559669324701</v>
+      </c>
+      <c r="E10">
+        <v>-80.715095018920707</v>
+      </c>
+      <c r="F10">
+        <v>28.193243008970502</v>
+      </c>
+      <c r="G10">
+        <v>-80.709601854858093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>27.4304486507646</v>
+      </c>
+      <c r="C11">
+        <v>-80.407477831420593</v>
+      </c>
+      <c r="D11">
+        <v>27.5279169782251</v>
+      </c>
+      <c r="E11">
+        <v>-80.456916307983406</v>
+      </c>
+      <c r="F11">
+        <v>27.557140649474899</v>
+      </c>
+      <c r="G11">
+        <v>-80.489875292358604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27.163799994017499</v>
+      </c>
+      <c r="C12">
+        <v>-80.305854296263703</v>
+      </c>
+      <c r="D12">
+        <v>27.190676883070701</v>
+      </c>
+      <c r="E12">
+        <v>-80.327826952513902</v>
+      </c>
+      <c r="F12">
+        <v>27.215104799611002</v>
+      </c>
+      <c r="G12">
+        <v>-80.344306444701502</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>27.0562277718441</v>
+      </c>
+      <c r="C13">
+        <v>-80.121833300169797</v>
+      </c>
+      <c r="D13">
+        <v>27.063565524779001</v>
+      </c>
+      <c r="E13">
+        <v>-80.116340136108093</v>
+      </c>
+      <c r="F13">
+        <v>27.0684570933517</v>
+      </c>
+      <c r="G13">
+        <v>-80.1135935540768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>26.999955725568999</v>
+      </c>
+      <c r="C14">
+        <v>-80.091620897826701</v>
+      </c>
+      <c r="D14">
+        <v>27.034211633332699</v>
+      </c>
+      <c r="E14">
+        <v>-80.105353807983093</v>
+      </c>
+      <c r="F14">
+        <v>27.0684570933517</v>
+      </c>
+      <c r="G14">
+        <v>-80.1135935540768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>26.952224746152101</v>
+      </c>
+      <c r="C15">
+        <v>-80.090247606811502</v>
+      </c>
+      <c r="D15">
+        <v>26.984047648061001</v>
+      </c>
+      <c r="E15">
+        <v>-80.094367479857993</v>
+      </c>
+      <c r="F15">
+        <v>26.977928557744999</v>
+      </c>
+      <c r="G15">
+        <v>-80.091620897826701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/etc/templates.xlsx
+++ b/etc/templates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -183,10 +183,16 @@
     <t>User 3 Longitude</t>
   </si>
   <si>
-    <t>*** User Three Encount Problem</t>
-  </si>
-  <si>
     <t>*** Group decides to go to Juptier Island</t>
+  </si>
+  <si>
+    <t>*** User 3 Encount Problem</t>
+  </si>
+  <si>
+    <t>*** User 3 Takes Alternate Highway</t>
+  </si>
+  <si>
+    <t>*** Reach Desination</t>
   </si>
 </sst>
 </file>
@@ -948,10 +954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1131,7 @@
         <v>-81.039191698609201</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1243,7 +1249,7 @@
         <v>-80.344306444701502</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1319,25 +1325,144 @@
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>26.7892979081155</v>
+      </c>
+      <c r="C16">
+        <v>-80.097114061890196</v>
+      </c>
+      <c r="D16">
+        <v>26.802781959727099</v>
+      </c>
+      <c r="E16">
+        <v>-80.103980516967894</v>
+      </c>
+      <c r="F16">
+        <v>26.8248433135361</v>
+      </c>
+      <c r="G16">
+        <v>-80.102607225952696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>26.622453793277099</v>
+      </c>
+      <c r="C17">
+        <v>-80.180884813842397</v>
+      </c>
+      <c r="D17">
+        <v>26.666642190199401</v>
+      </c>
+      <c r="E17">
+        <v>-80.174018358764698</v>
+      </c>
+      <c r="F17">
+        <v>26.621226093774101</v>
+      </c>
+      <c r="G17">
+        <v>-80.065528368530096</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>26.456595266314299</v>
+      </c>
+      <c r="C18">
+        <v>80.175391649780806</v>
+      </c>
+      <c r="D18">
+        <v>26.4713479508987</v>
+      </c>
+      <c r="E18">
+        <v>-80.175391649780806</v>
+      </c>
+      <c r="F18">
+        <v>26.452906799742198</v>
+      </c>
+      <c r="G18">
+        <v>-80.092994188842795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>26.214135627845199</v>
+      </c>
+      <c r="C19">
+        <v>-80.193244432983604</v>
+      </c>
+      <c r="D19">
+        <v>26.251091172981599</v>
+      </c>
+      <c r="E19">
+        <v>-80.171271776733505</v>
+      </c>
+      <c r="F19">
+        <v>26.108131373634901</v>
+      </c>
+      <c r="G19">
+        <v>-80.169898485718306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25.9440052325259</v>
+      </c>
+      <c r="C20">
+        <v>-80.227576708374002</v>
+      </c>
+      <c r="D20">
+        <v>25.974873523298701</v>
+      </c>
+      <c r="E20">
+        <v>-80.231696581421303</v>
+      </c>
+      <c r="F20">
+        <v>25.861238322995899</v>
+      </c>
+      <c r="G20">
+        <v>-80.208350634155096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>25.789654500000001</v>
+      </c>
+      <c r="C21">
+        <v>-80.204417699999993</v>
+      </c>
+      <c r="D21">
+        <v>25.789654500000001</v>
+      </c>
+      <c r="E21">
+        <v>-80.204417699999993</v>
+      </c>
+      <c r="F21">
+        <v>25.789654500000001</v>
+      </c>
+      <c r="G21">
+        <v>-80.204417699999993</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
